--- a/EnelBarChart.xlsx
+++ b/EnelBarChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ithude\source\repos\enelBarChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ithude\source\repos\Power-BI-ComparativeBarChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E057D518-F370-4694-8804-33AC823ADF1F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F688E290-D893-4693-A250-74C23D8EC89F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6DA49C1A-C37B-4302-AC1C-CFC0494268BF}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -691,7 +690,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>12</v>
